--- a/media/IDFC_TW/Billing/BKT 1.xlsx
+++ b/media/IDFC_TW/Billing/BKT 1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohaksehgal/Documents/Work/Billing/IDFC TW/PAYOUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9836FCF4-9F0B-6F42-906F-B3BBD84DFBA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8808A0FD-77CC-A540-AD81-42305E035FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C9A3ECB7-DBAC-47A6-ABDF-52361766264B}"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="10200" windowHeight="18000" xr2:uid="{C9A3ECB7-DBAC-47A6-ABDF-52361766264B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -570,26 +570,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F56FEE-6056-4502-AE8F-B139F49B8E6D}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="9">
         <v>25</v>
@@ -598,269 +598,243 @@
         <v>30</v>
       </c>
       <c r="G1" s="10">
+        <v>34.99</v>
+      </c>
+      <c r="H1" s="11">
         <v>35</v>
-      </c>
-      <c r="H1" s="11">
-        <v>35.01</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="B2" s="2">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="C2" s="2">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="D2" s="2">
-        <v>8.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="F2" s="2">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="G2" s="2">
-        <v>13.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H2" s="3">
-        <v>16.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C3" s="5">
-        <v>8.6999999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="D3" s="5">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="E3" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="G3" s="5">
-        <v>15.8</v>
+        <v>17.8</v>
       </c>
       <c r="H3" s="6">
-        <v>18.8</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="B4" s="5">
-        <v>8.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C4" s="5">
-        <v>9.1999999999999993</v>
+        <v>11.1</v>
       </c>
       <c r="D4" s="5">
-        <v>11.2</v>
+        <v>12.7</v>
       </c>
       <c r="E4" s="5">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="F4" s="5">
-        <v>14.3</v>
+        <v>15.7</v>
       </c>
       <c r="G4" s="5">
-        <v>17</v>
+        <v>19.2</v>
       </c>
       <c r="H4" s="6">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B5" s="5">
-        <v>9.1999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="C5" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="E5" s="5">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="F5" s="5">
-        <v>15.8</v>
+        <v>17.3</v>
       </c>
       <c r="G5" s="5">
-        <v>18.8</v>
+        <v>20.9</v>
       </c>
       <c r="H5" s="6">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B6" s="5">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="C6" s="5">
-        <v>11.7</v>
+        <v>13.9</v>
       </c>
       <c r="D6" s="5">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F6" s="5">
-        <v>17</v>
+        <v>18.7</v>
       </c>
       <c r="G6" s="5">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="H6" s="6">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="B7" s="5">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="C7" s="5">
-        <v>12.5</v>
+        <v>15.4</v>
       </c>
       <c r="D7" s="5">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="E7" s="5">
-        <v>16.2</v>
+        <v>18.3</v>
       </c>
       <c r="F7" s="5">
-        <v>18.3</v>
+        <v>20.7</v>
       </c>
       <c r="G7" s="5">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="H7" s="6">
-        <v>23.2</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="B8" s="5">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="C8" s="5">
-        <v>13.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D8" s="5">
-        <v>14.7</v>
+        <v>17.3</v>
       </c>
       <c r="E8" s="5">
-        <v>17</v>
+        <v>19.2</v>
       </c>
       <c r="F8" s="5">
-        <v>19.3</v>
+        <v>21.1</v>
       </c>
       <c r="G8" s="5">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H8" s="6">
-        <v>23.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="B9" s="5">
-        <v>12.8</v>
+        <v>14.6</v>
       </c>
       <c r="C9" s="5">
-        <v>14</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D9" s="5">
-        <v>15.8</v>
+        <v>18.3</v>
       </c>
       <c r="E9" s="5">
-        <v>18.3</v>
+        <v>20.2</v>
       </c>
       <c r="F9" s="5">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="G9" s="5">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="H9" s="5">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5">
-        <v>13.7</v>
+        <v>15.4</v>
       </c>
       <c r="C10" s="5">
-        <v>15</v>
+        <v>17.8</v>
       </c>
       <c r="D10" s="5">
-        <v>17</v>
+        <v>19.2</v>
       </c>
       <c r="E10" s="5">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="F10" s="5">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="G10" s="5">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="H10" s="5">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5">
-        <v>17.8</v>
-      </c>
-      <c r="E11" s="5">
-        <v>20.8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>22.2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>24</v>
-      </c>
-      <c r="H11" s="5">
         <v>26</v>
       </c>
     </row>
